--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_551.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_551.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33013-d244451-Reviews-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>55</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-San-Dimas.h982539.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_551.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_551.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,591 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r566851001-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>33013</t>
+  </si>
+  <si>
+    <t>244451</t>
+  </si>
+  <si>
+    <t>566851001</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>One night stay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our room was clean. We were asked if we wanted delux beds for 20 extra dollars and we declined. We had full sized beds. The too. The room was small but fit the pupose for us. Everything was clean. I would definitely stay again if passing through. The cost of the room was around $70 with military discount . </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r552529502-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>552529502</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t>Typical Motel 6</t>
+  </si>
+  <si>
+    <t>This is your typical motel 6. Rooms are small but clean. Have to pay extra for Wi-Fi. 50% of occupancy is people living there. Dilip went above and beyond,  even breaking the rules,  to ensure we were satisfied.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r552284594-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>552284594</t>
+  </si>
+  <si>
+    <t>01/07/2018</t>
+  </si>
+  <si>
+    <t>Needs improvement</t>
+  </si>
+  <si>
+    <t>The hotel is in a convenient location, walk to Denny's, Starbucks, Carl's many other options within a block or two.  The Staff was very nice and friendly.  We went to our room and while the sheets were clean, the cover was not and bed skirt was filthy.  The sink and bathroom seemed clean, so we made due and went to bed.  (We arrived at 945pm and prior to our reservation there was very few rooms available in the area, so finding something else wasn't an option for us)  In the morning after shower I grabbed the towel that was folded and hanging on the rack and it was dirty, I mean like it had been used to wipe the floor!  Fortunately we were attending a water polo tournament so I had brought towels along or I would have had to get dressed while still wet!  I realize that Motel 6 is a bare bones motel, BUT I expect it to be clean.  I found out the next day that another family at the tournament stayed here too, they arrived before us and had to have the staff relocate them twice because the rooms were dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>The hotel is in a convenient location, walk to Denny's, Starbucks, Carl's many other options within a block or two.  The Staff was very nice and friendly.  We went to our room and while the sheets were clean, the cover was not and bed skirt was filthy.  The sink and bathroom seemed clean, so we made due and went to bed.  (We arrived at 945pm and prior to our reservation there was very few rooms available in the area, so finding something else wasn't an option for us)  In the morning after shower I grabbed the towel that was folded and hanging on the rack and it was dirty, I mean like it had been used to wipe the floor!  Fortunately we were attending a water polo tournament so I had brought towels along or I would have had to get dressed while still wet!  I realize that Motel 6 is a bare bones motel, BUT I expect it to be clean.  I found out the next day that another family at the tournament stayed here too, they arrived before us and had to have the staff relocate them twice because the rooms were dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r454821982-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>454821982</t>
+  </si>
+  <si>
+    <t>01/25/2017</t>
+  </si>
+  <si>
+    <t>Nice price</t>
+  </si>
+  <si>
+    <t>Our stay is always nice and the rooms are always clean. Descent tv channels and nice beds. Nice location and is convenient. There are grocery stores, restaurants and gas staions. My only complant is that I just wish they had a refrigerator and a microwave in the rooms!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r436517749-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>436517749</t>
+  </si>
+  <si>
+    <t>11/11/2016</t>
+  </si>
+  <si>
+    <t>Well,My friend Cassandra recommended this motel 6 after a night out from Chili's.My 3rd Valentine wanted to model for me,So we ordered a number 11 on the room service menu.Then she put on the blue lavender sheer.Welcome to San Dimas Excellent!Thank you Motel 6 for making movie night a day to remember.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r431687723-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>431687723</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Bad hotel!</t>
+  </si>
+  <si>
+    <t>Noticed bed cover was dirty so I was pulling back the sheets and a syringe came flying out! Thankfully it hit the wall and not me! Who knows what might have been on it! Either they don't change the sheets or housekeeping dropped it! Burn holes all over blankets and bath tub. When going to room noticed other visitors looked pretty seedy. Got out of there fast! Would not recommend this hotel to anyone! We were only going to stay at this hotel for one night because of plumbing issues at home and the reviews were good.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r404092532-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>404092532</t>
+  </si>
+  <si>
+    <t>08/11/2016</t>
+  </si>
+  <si>
+    <t>clean every time</t>
+  </si>
+  <si>
+    <t>we stayed here one night and it is a nice motel 6, the room was clean and the beds were comfortable, we always stay here when we are in san dimas.nice flat screen tv. and it is all we expected it to be.there was one light burned out, and they brought us a new one right away,the front desk people were courteous, and it was quick to check in.no frills but a nice room to stay at.we could park right in front of our room, and there are lots of restaurants near there. also a 99 cents store, and place for great pizza. its a bargain, and its  nicer than some motel 6"sMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>we stayed here one night and it is a nice motel 6, the room was clean and the beds were comfortable, we always stay here when we are in san dimas.nice flat screen tv. and it is all we expected it to be.there was one light burned out, and they brought us a new one right away,the front desk people were courteous, and it was quick to check in.no frills but a nice room to stay at.we could park right in front of our room, and there are lots of restaurants near there. also a 99 cents store, and place for great pizza. its a bargain, and its  nicer than some motel 6"sMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r347602074-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>347602074</t>
+  </si>
+  <si>
+    <t>02/14/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No thrills, nothing special </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get what you get here. Nothing that will blow you away. Room was very small, clean, TV worked. No amenities. Bring your own soap and shampoo. Location is good. Close to the fairplex and multiple restaurants all within walking distances. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r336681065-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>336681065</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>Good value but not worth it</t>
+  </si>
+  <si>
+    <t>I visited the Motel 6 and was planning on staying 2 nights. I was told I had a non smoking room.  The bed looked like a full. The room a a strong smell of cigarette smoke and there were cigarette burns on the  bedspread. The room was sparse, no drawers or pictures on the walls. Staff tried to resolve the problem by offering  another room. That room was worse.  There also were some creepy looking characters smoking outside of my room.Staff was helpful but motel was fully booked.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Los Angeles - San Dimas, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>I visited the Motel 6 and was planning on staying 2 nights. I was told I had a non smoking room.  The bed looked like a full. The room a a strong smell of cigarette smoke and there were cigarette burns on the  bedspread. The room was sparse, no drawers or pictures on the walls. Staff tried to resolve the problem by offering  another room. That room was worse.  There also were some creepy looking characters smoking outside of my room.Staff was helpful but motel was fully booked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r318331207-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>318331207</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Terrible customer service</t>
+  </si>
+  <si>
+    <t>I rented a room at the San Dimas motel on 10/02/2015 at 12:30am. I had stayed at the same hotel previously &amp; had a pleasant experience. This time it was because they allowed pets. That night, after paying for the room, I immediately went to check it out. Since I was satisfied with things I left my purse in the room as I went to unload my car. When I returned with my dog the room key didn't work. The night clerk couldn't open the room with her master key so she called the manager. When the manager arrived she immediately stated she wasn't suppose to be working. During that time another guest reported to me, the night clerk &amp; the manager that they had problems with the same room door &amp; had to be reassigned to another room. After the manager wasn't able to open the door she told me that I had to wait until the custodian arrived at 7:45am; the time then was 1:30am. The manager told me there was no one for to contact regarding this; that there wasn't an option to opening my room; that the hotel wasn't liable if my purse was stolen; that if they drilled the door lock I would have to pay the damage; that no one had ever broken in to a room. The manager moved me to another room. The next morning the custodian immediately opened the door. I...I rented a room at the San Dimas motel on 10/02/2015 at 12:30am. I had stayed at the same hotel previously &amp; had a pleasant experience. This time it was because they allowed pets. That night, after paying for the room, I immediately went to check it out. Since I was satisfied with things I left my purse in the room as I went to unload my car. When I returned with my dog the room key didn't work. The night clerk couldn't open the room with her master key so she called the manager. When the manager arrived she immediately stated she wasn't suppose to be working. During that time another guest reported to me, the night clerk &amp; the manager that they had problems with the same room door &amp; had to be reassigned to another room. After the manager wasn't able to open the door she told me that I had to wait until the custodian arrived at 7:45am; the time then was 1:30am. The manager told me there was no one for to contact regarding this; that there wasn't an option to opening my room; that the hotel wasn't liable if my purse was stolen; that if they drilled the door lock I would have to pay the damage; that no one had ever broken in to a room. The manager moved me to another room. The next morning the custodian immediately opened the door. I proceeded to stay 3 more nights. During the days I was staying at the hotel there was constant police patrolling the motel. When I returned on 10/11 I was told the hotel couldn't rent to me; that the manager had flagged my ID with the notation. The corporate office reported that the local manager makes the decision who they will rent  to. So, I told Motel 6 I will inform my family &amp; friends of my experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Los Angeles - San Dimas, responded to this reviewResponded October 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2015</t>
+  </si>
+  <si>
+    <t>I rented a room at the San Dimas motel on 10/02/2015 at 12:30am. I had stayed at the same hotel previously &amp; had a pleasant experience. This time it was because they allowed pets. That night, after paying for the room, I immediately went to check it out. Since I was satisfied with things I left my purse in the room as I went to unload my car. When I returned with my dog the room key didn't work. The night clerk couldn't open the room with her master key so she called the manager. When the manager arrived she immediately stated she wasn't suppose to be working. During that time another guest reported to me, the night clerk &amp; the manager that they had problems with the same room door &amp; had to be reassigned to another room. After the manager wasn't able to open the door she told me that I had to wait until the custodian arrived at 7:45am; the time then was 1:30am. The manager told me there was no one for to contact regarding this; that there wasn't an option to opening my room; that the hotel wasn't liable if my purse was stolen; that if they drilled the door lock I would have to pay the damage; that no one had ever broken in to a room. The manager moved me to another room. The next morning the custodian immediately opened the door. I...I rented a room at the San Dimas motel on 10/02/2015 at 12:30am. I had stayed at the same hotel previously &amp; had a pleasant experience. This time it was because they allowed pets. That night, after paying for the room, I immediately went to check it out. Since I was satisfied with things I left my purse in the room as I went to unload my car. When I returned with my dog the room key didn't work. The night clerk couldn't open the room with her master key so she called the manager. When the manager arrived she immediately stated she wasn't suppose to be working. During that time another guest reported to me, the night clerk &amp; the manager that they had problems with the same room door &amp; had to be reassigned to another room. After the manager wasn't able to open the door she told me that I had to wait until the custodian arrived at 7:45am; the time then was 1:30am. The manager told me there was no one for to contact regarding this; that there wasn't an option to opening my room; that the hotel wasn't liable if my purse was stolen; that if they drilled the door lock I would have to pay the damage; that no one had ever broken in to a room. The manager moved me to another room. The next morning the custodian immediately opened the door. I proceeded to stay 3 more nights. During the days I was staying at the hotel there was constant police patrolling the motel. When I returned on 10/11 I was told the hotel couldn't rent to me; that the manager had flagged my ID with the notation. The corporate office reported that the local manager makes the decision who they will rent  to. So, I told Motel 6 I will inform my family &amp; friends of my experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r304833337-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>304833337</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Annual Stay</t>
+  </si>
+  <si>
+    <t>We stay here each year when we visit USA.  The rooms are clean and comfortable and the price is right.  This motel is close to the events we attend. our fellow Aussie's stay here. The Management and Staff are always friendly and helpful.  Plenty of eateries are within walking distance.  We will again stay here next visit.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r293516217-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>293516217</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>A place to stay for the night!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here last year, the room was nicely re-renovated, but it was showing signs of it starting to get a little run down. The problem with this place is that it gets very busy at night with people hanging around and talking loud outside the rooms. Also, I would recommend staying in a upstairs room because the ceiling/floor is thin and when people walk it is so loud, I was up half the night. They do accommodate pets with no weight limit, so I was able to bring my black lab along. The ice machines didn't work, and the staff was very helpful though!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r244028287-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>244028287</t>
+  </si>
+  <si>
+    <t>12/11/2014</t>
+  </si>
+  <si>
+    <t>Loved the Motel - Neighbors, not so much..</t>
+  </si>
+  <si>
+    <t>This Motel 6 is newly renovated, the rooms are so very nice and clean, the grounds are very well manicured, no trash or cigarette butts laying around. Cleaning room service does a great job. The office personell (Irma) was very accommodating, very welcoming and went over and beyond our needs. The tenants on the other hand are very loud and talk outside in the parking lot (so you can't sleep) you can hear people talking and walking around and above your room.. I suggest to rent an upstairs end room.... It's the only motel that allows any size dog... Great to be able to walk from your room to a variety of restaurants...Like I said, Great Motel 6, inconsiderate neighbors to deal with..MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>This Motel 6 is newly renovated, the rooms are so very nice and clean, the grounds are very well manicured, no trash or cigarette butts laying around. Cleaning room service does a great job. The office personell (Irma) was very accommodating, very welcoming and went over and beyond our needs. The tenants on the other hand are very loud and talk outside in the parking lot (so you can't sleep) you can hear people talking and walking around and above your room.. I suggest to rent an upstairs end room.... It's the only motel that allows any size dog... Great to be able to walk from your room to a variety of restaurants...Like I said, Great Motel 6, inconsiderate neighbors to deal with..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r240083296-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>240083296</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Suprising</t>
+  </si>
+  <si>
+    <t>Was not expecting clean decent room from a Motel 6 but that's what this property offers. Seems recently remodeled that must be the reason the higher price.  Non-smoking room seemed a little smoky. TV reception was pretty bad, not sure why...</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r231392369-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>231392369</t>
+  </si>
+  <si>
+    <t>09/28/2014</t>
+  </si>
+  <si>
+    <t>Nice rooms nothing else</t>
+  </si>
+  <si>
+    <t>There are not many options in San Dimas hotel wise. We just wanted an inexpensive place to crash so Motel 6 was our best option. The inside of the room was surprisingly nice! Flat screen tv's, hardwood laminate floors, clean bathroom with modern raised sink. The only thing was that we had four people but only two towels. We did mange to get two more from the office without a problem. For a cheap place just to crash this place works well. The cons about this place:No Pool or jacuzzi No ice in the only two ice machinesDirty laundry/vending areaNo securityShady people hanging around, there was even a woman sleeping in her car in the parking lot! MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>There are not many options in San Dimas hotel wise. We just wanted an inexpensive place to crash so Motel 6 was our best option. The inside of the room was surprisingly nice! Flat screen tv's, hardwood laminate floors, clean bathroom with modern raised sink. The only thing was that we had four people but only two towels. We did mange to get two more from the office without a problem. For a cheap place just to crash this place works well. The cons about this place:No Pool or jacuzzi No ice in the only two ice machinesDirty laundry/vending areaNo securityShady people hanging around, there was even a woman sleeping in her car in the parking lot! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r199421980-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>199421980</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>Better Than Anticipated</t>
+  </si>
+  <si>
+    <t>After reading several reviews on the internet, I was skeptical about staying here.  I don't believe that any of the horror stories I read happened to us.  We didn't expect too much in the way of amenities and we were staying only one night.  Not expecting much, we weren't disappointed.  The room was very overpriced for what we got.  The room was very small and we had to move the bed away from the wall so we could access both sides.  The bed was one of the worst I have ever slept on and I was informed that they are remodeling in May with new mattresses.  There is no coffee, shampoo, fridge or microwave in the room, but there are ample supplies in the shopping complex they share space with.  The room overall seemed clean enough and the bathroom worked; what more do you need?  If you go in expecting very little and you get it, you should be happy.  We were.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>After reading several reviews on the internet, I was skeptical about staying here.  I don't believe that any of the horror stories I read happened to us.  We didn't expect too much in the way of amenities and we were staying only one night.  Not expecting much, we weren't disappointed.  The room was very overpriced for what we got.  The room was very small and we had to move the bed away from the wall so we could access both sides.  The bed was one of the worst I have ever slept on and I was informed that they are remodeling in May with new mattresses.  There is no coffee, shampoo, fridge or microwave in the room, but there are ample supplies in the shopping complex they share space with.  The room overall seemed clean enough and the bathroom worked; what more do you need?  If you go in expecting very little and you get it, you should be happy.  We were.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r193612843-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>193612843</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Bedbugs</t>
+  </si>
+  <si>
+    <t>Horribly attacked by bedbugs in my room. Took a look at the mattress.. totally disgusting, brown, stained, looked twenty years old. Don't be fooled by the good location, check the bed when you get there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r185893031-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>185893031</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Best in the West</t>
+  </si>
+  <si>
+    <t>This would have to be the nicest Motel 6 in the States. We just stayed here for 8 nights and had a great time.The staff are all fantastic and nothing was too much trouble.Nice clean room and the grounds are spotless. We could have chosen a different restaurant within walking distance every night of our stay.Lots of shops within walking distance, five minute drive to the Fairplex and the freeway is right next door with very little noise.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r144613183-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>144613183</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Great people &amp; place</t>
+  </si>
+  <si>
+    <t>Stayed there with my baby puppies...This was a great place that allows your pets to stay with you.   Hard to find places that will allow your pets. this was our 2nd stay here..   Near food places and stores.  wish more of the Motel 6 let your pets stay.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r135100025-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>135100025</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>The state of this hotel leaves a lot to be desired. I stayed here while visiting family I have in the area and the only thing good I have to say is that the location is convinient. Its close to several options to eat and its located right off the freeway. However the housekeeping is horrible. The furniture is old and the carpet needs to be replaced. I was afraid to walk on it with out socks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r133080587-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>133080587</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>third stay</t>
+  </si>
+  <si>
+    <t>we had pre booked for 5 nights, but were day ahead of schedule, we approached the receptionist  to ask if a room available for the extra night, Brian welcomed us and said we could have our room a night early. each year we book the same room for our visit to the LA Roadster Show at the fairplex. a number of our Australian friends stay at this motel. As usual our room was clean and smoke free. House keeping staff are always helpful.  the nearby Denny's is great for breakfast and dinner - staff are excellent.  we always feel our car is safe in the carpark.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r114969200-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>114969200</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>Would stay again</t>
+  </si>
+  <si>
+    <t>This is the second time we have stayed at Motel 6 San Dimas.  We visit from Australia to see the Car Shows at the Fairplex.  Reception staff have always been friendly and helpful, This year our room was recently refurbished,  Housekeeping were always helpful.   The only downfall was the few permanent residence who smoke constantly outside the rooms.  This smoke is sucked in the air conditioning.   Surley they could smoke in the shade of the numerous trees.Beside from this we will stay again next year.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r76516336-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>76516336</t>
+  </si>
+  <si>
+    <t>08/23/2010</t>
+  </si>
+  <si>
+    <t>easiest part of any trip</t>
+  </si>
+  <si>
+    <t>After checking other locale motels, Motel 6 in San Dimas was the cleanest, friendliest and so freeway close. The BEST part was the affordability with out losing the comfort.I HIGHLY RECOMMEND San Dimas Motel 6. It will definitly be my next stay.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r67592100-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>67592100</t>
+  </si>
+  <si>
+    <t>06/15/2010</t>
+  </si>
+  <si>
+    <t>Lovely service and nice host, but rooms are sort of small and no jacuzzi.</t>
+  </si>
+  <si>
+    <t>I was thrilled with the service! The fine young lady at the front desk who's name was Thea helped me out and was very friendly and showed me great customer service. She went above and beyond for me in order to help me. I couldn't thank her enough. The room was descent but it was a little small with no fridge or jacuzzi.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r53855257-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>53855257</t>
+  </si>
+  <si>
+    <t>01/19/2010</t>
+  </si>
+  <si>
+    <t>Excellent place to stay with a price you cant beat !</t>
+  </si>
+  <si>
+    <t>We have used this Motel 6 many many times and have never had a problem !</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r43214045-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>43214045</t>
+  </si>
+  <si>
+    <t>09/20/2009</t>
+  </si>
+  <si>
+    <t>not bad for price</t>
+  </si>
+  <si>
+    <t>If your looking for a low cost motel to stay in san dimas, this one will do fine, dont expect much more than just a place to sleep though, however there are plenty of places walking distance to eat, room was clean and it was pretty quite at night. Next time I would pick a niceer hotel with pool for the kids, but still would recommend this motel for thoes who are on a tight travel budget.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r30102161-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>30102161</t>
+  </si>
+  <si>
+    <t>05/16/2009</t>
+  </si>
+  <si>
+    <t>Normally good place to stay, but not this time!</t>
+  </si>
+  <si>
+    <t>I have stayed at this Motel 6 on at least 4 occasions now.  Three of those four times have been fine. The wireless internet is a plus here, good signal from the rooms I have had. I like the fact that there are some decent places to eat right near the motel. This last trip was a real disappointment. I woke up with bug bites on me. I will hesitate before staying here again.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r4409202-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>4409202</t>
+  </si>
+  <si>
+    <t>02/01/2006</t>
+  </si>
+  <si>
+    <t>CLEAN, SAFE AND BEST OF ALL...CHEAP MOTEL TO STAY!</t>
+  </si>
+  <si>
+    <t>I was looking for a really cheap, clean and safe(being a female traveler) motel to stay for 1 night to attend a business meeting the following business day, and don't want to spent a lot of money just to stay for 1 night (My company is not reimbursing me for this expense).  I booked my reservation with Brian - the Reservation Clerk and he was so pleasant and courteous. I told him I wanted a 1 queen size bed, non smoking and most importantly a quiet room/area.  I followed up my reservation (by phone) the day of my arrival and Amanda (I beleive this is her name), assisted me and said that the room will be ready for me when I arrived, and she made sure that she'll give me a quiet room/area, per my request.When I got to my room - I was happy that I got a nice, clean and quiet room upstairs.  Also, I wanted to go a steakhouse (Pinnacle Peak), and it was so close to the motel.  I loved this place and will definitely stay here again and recommend it to others.Room is clean, although there is no alarm clock, but there is a wakeup call.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2006</t>
+  </si>
+  <si>
+    <t>I was looking for a really cheap, clean and safe(being a female traveler) motel to stay for 1 night to attend a business meeting the following business day, and don't want to spent a lot of money just to stay for 1 night (My company is not reimbursing me for this expense).  I booked my reservation with Brian - the Reservation Clerk and he was so pleasant and courteous. I told him I wanted a 1 queen size bed, non smoking and most importantly a quiet room/area.  I followed up my reservation (by phone) the day of my arrival and Amanda (I beleive this is her name), assisted me and said that the room will be ready for me when I arrived, and she made sure that she'll give me a quiet room/area, per my request.When I got to my room - I was happy that I got a nice, clean and quiet room upstairs.  Also, I wanted to go a steakhouse (Pinnacle Peak), and it was so close to the motel.  I loved this place and will definitely stay here again and recommend it to others.Room is clean, although there is no alarm clock, but there is a wakeup call.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r4045604-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>4045604</t>
+  </si>
+  <si>
+    <t>10/22/2005</t>
+  </si>
+  <si>
+    <t>Very good value for a budget hotel</t>
+  </si>
+  <si>
+    <t>This motel6 is a cheap, clean, quiet, and safe place to stay.  If you're on a budget, and don't require any amenities (like an alarm clock, or a towel bigger than a washcloth), this is the place for you.This motel6 is in a reasonably nice neighborhood, although the police were there one night, apparently settling a domestic dispute or something.Remember, this is Motel6, and you get what you pay for, but for a budget hotel, this is a good one.</t>
+  </si>
+  <si>
+    <t>September 2005</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r3899535-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
+  </si>
+  <si>
+    <t>3899535</t>
+  </si>
+  <si>
+    <t>09/12/2005</t>
+  </si>
+  <si>
+    <t>In response to review from Rocklin Ca.</t>
+  </si>
+  <si>
+    <t>In response to review I just read from someone in Rocklin, Ca., I just stayed there as I always do, and I had maid service each day. I left my room early each day, and on the days I left late, there was a knock on my door asking if I needed service. Some people staying in my area of rooms, requested no service, but they were given clean towels and toilet paper daily.No maid ever told me that they shouldn't be in my room. They were out each day with their cleaning carts.I stay that at this location because it is very reasonable, and I stay for a week at a time.The area has many restaurants, and stores within walking distance, and the local buses run on a daily schedule, if you do not have a car. San Dimas is a quaint little town, which I enjoy very much.MoreShow less</t>
+  </si>
+  <si>
+    <t>In response to review I just read from someone in Rocklin, Ca., I just stayed there as I always do, and I had maid service each day. I left my room early each day, and on the days I left late, there was a knock on my door asking if I needed service. Some people staying in my area of rooms, requested no service, but they were given clean towels and toilet paper daily.No maid ever told me that they shouldn't be in my room. They were out each day with their cleaning carts.I stay that at this location because it is very reasonable, and I stay for a week at a time.The area has many restaurants, and stores within walking distance, and the local buses run on a daily schedule, if you do not have a car. San Dimas is a quaint little town, which I enjoy very much.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1233,1874 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K16" t="s">
+        <v>144</v>
+      </c>
+      <c r="L16" t="s">
+        <v>145</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>146</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>148</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>149</v>
+      </c>
+      <c r="J17" t="s">
+        <v>150</v>
+      </c>
+      <c r="K17" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s">
+        <v>152</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
+        <v>159</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
+        <v>163</v>
+      </c>
+      <c r="L19" t="s">
+        <v>164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" t="s">
+        <v>86</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J20" t="s">
+        <v>168</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>171</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" t="s">
+        <v>175</v>
+      </c>
+      <c r="L21" t="s">
+        <v>176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>183</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>184</v>
+      </c>
+      <c r="J23" t="s">
+        <v>185</v>
+      </c>
+      <c r="K23" t="s">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s">
+        <v>187</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>188</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>79</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>219</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>228</v>
+      </c>
+      <c r="J30" t="s">
+        <v>229</v>
+      </c>
+      <c r="K30" t="s">
+        <v>230</v>
+      </c>
+      <c r="L30" t="s">
+        <v>231</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>232</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11176</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>238</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_551.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_551.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Anichols39</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Molly H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r552529502-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Raquel H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r552284594-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>The hotel is in a convenient location, walk to Denny's, Starbucks, Carl's many other options within a block or two.  The Staff was very nice and friendly.  We went to our room and while the sheets were clean, the cover was not and bed skirt was filthy.  The sink and bathroom seemed clean, so we made due and went to bed.  (We arrived at 945pm and prior to our reservation there was very few rooms available in the area, so finding something else wasn't an option for us)  In the morning after shower I grabbed the towel that was folded and hanging on the rack and it was dirty, I mean like it had been used to wipe the floor!  Fortunately we were attending a water polo tournament so I had brought towels along or I would have had to get dressed while still wet!  I realize that Motel 6 is a bare bones motel, BUT I expect it to be clean.  I found out the next day that another family at the tournament stayed here too, they arrived before us and had to have the staff relocate them twice because the rooms were dirty.More</t>
   </si>
   <si>
+    <t>mmlewis90</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r454821982-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Anthony B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r436517749-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Anthony F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r431687723-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>othermom375</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r404092532-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t>we stayed here one night and it is a nice motel 6, the room was clean and the beds were comfortable, we always stay here when we are in san dimas.nice flat screen tv. and it is all we expected it to be.there was one light burned out, and they brought us a new one right away,the front desk people were courteous, and it was quick to check in.no frills but a nice room to stay at.we could park right in front of our room, and there are lots of restaurants near there. also a 99 cents store, and place for great pizza. its a bargain, and its  nicer than some motel 6"sMore</t>
   </si>
   <si>
+    <t>Aaron G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r347602074-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -315,6 +339,9 @@
     <t xml:space="preserve">You get what you get here. Nothing that will blow you away. Room was very small, clean, TV worked. No amenities. Bring your own soap and shampoo. Location is good. Close to the fairplex and multiple restaurants all within walking distances. </t>
   </si>
   <si>
+    <t>Lisa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r336681065-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -342,6 +369,9 @@
     <t>I visited the Motel 6 and was planning on staying 2 nights. I was told I had a non smoking room.  The bed looked like a full. The room a a strong smell of cigarette smoke and there were cigarette burns on the  bedspread. The room was sparse, no drawers or pictures on the walls. Staff tried to resolve the problem by offering  another room. That room was worse.  There also were some creepy looking characters smoking outside of my room.Staff was helpful but motel was fully booked.More</t>
   </si>
   <si>
+    <t>MEMendez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r318331207-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -369,6 +399,9 @@
     <t>I rented a room at the San Dimas motel on 10/02/2015 at 12:30am. I had stayed at the same hotel previously &amp; had a pleasant experience. This time it was because they allowed pets. That night, after paying for the room, I immediately went to check it out. Since I was satisfied with things I left my purse in the room as I went to unload my car. When I returned with my dog the room key didn't work. The night clerk couldn't open the room with her master key so she called the manager. When the manager arrived she immediately stated she wasn't suppose to be working. During that time another guest reported to me, the night clerk &amp; the manager that they had problems with the same room door &amp; had to be reassigned to another room. After the manager wasn't able to open the door she told me that I had to wait until the custodian arrived at 7:45am; the time then was 1:30am. The manager told me there was no one for to contact regarding this; that there wasn't an option to opening my room; that the hotel wasn't liable if my purse was stolen; that if they drilled the door lock I would have to pay the damage; that no one had ever broken in to a room. The manager moved me to another room. The next morning the custodian immediately opened the door. I...I rented a room at the San Dimas motel on 10/02/2015 at 12:30am. I had stayed at the same hotel previously &amp; had a pleasant experience. This time it was because they allowed pets. That night, after paying for the room, I immediately went to check it out. Since I was satisfied with things I left my purse in the room as I went to unload my car. When I returned with my dog the room key didn't work. The night clerk couldn't open the room with her master key so she called the manager. When the manager arrived she immediately stated she wasn't suppose to be working. During that time another guest reported to me, the night clerk &amp; the manager that they had problems with the same room door &amp; had to be reassigned to another room. After the manager wasn't able to open the door she told me that I had to wait until the custodian arrived at 7:45am; the time then was 1:30am. The manager told me there was no one for to contact regarding this; that there wasn't an option to opening my room; that the hotel wasn't liable if my purse was stolen; that if they drilled the door lock I would have to pay the damage; that no one had ever broken in to a room. The manager moved me to another room. The next morning the custodian immediately opened the door. I proceeded to stay 3 more nights. During the days I was staying at the hotel there was constant police patrolling the motel. When I returned on 10/11 I was told the hotel couldn't rent to me; that the manager had flagged my ID with the notation. The corporate office reported that the local manager makes the decision who they will rent  to. So, I told Motel 6 I will inform my family &amp; friends of my experience.More</t>
   </si>
   <si>
+    <t>LIL32Brisbane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r304833337-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -387,6 +420,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>briensreviews</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r293516217-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t xml:space="preserve">I stayed here last year, the room was nicely re-renovated, but it was showing signs of it starting to get a little run down. The problem with this place is that it gets very busy at night with people hanging around and talking loud outside the rooms. Also, I would recommend staying in a upstairs room because the ceiling/floor is thin and when people walk it is so loud, I was up half the night. They do accommodate pets with no weight limit, so I was able to bring my black lab along. The ice machines didn't work, and the staff was very helpful though!  </t>
   </si>
   <si>
+    <t>Drema P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r244028287-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -423,6 +462,9 @@
     <t>This Motel 6 is newly renovated, the rooms are so very nice and clean, the grounds are very well manicured, no trash or cigarette butts laying around. Cleaning room service does a great job. The office personell (Irma) was very accommodating, very welcoming and went over and beyond our needs. The tenants on the other hand are very loud and talk outside in the parking lot (so you can't sleep) you can hear people talking and walking around and above your room.. I suggest to rent an upstairs end room.... It's the only motel that allows any size dog... Great to be able to walk from your room to a variety of restaurants...Like I said, Great Motel 6, inconsiderate neighbors to deal with..More</t>
   </si>
   <si>
+    <t>Vinster7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r240083296-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -441,6 +483,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>seahunters2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r231392369-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -462,6 +507,9 @@
     <t>There are not many options in San Dimas hotel wise. We just wanted an inexpensive place to crash so Motel 6 was our best option. The inside of the room was surprisingly nice! Flat screen tv's, hardwood laminate floors, clean bathroom with modern raised sink. The only thing was that we had four people but only two towels. We did mange to get two more from the office without a problem. For a cheap place just to crash this place works well. The cons about this place:No Pool or jacuzzi No ice in the only two ice machinesDirty laundry/vending areaNo securityShady people hanging around, there was even a woman sleeping in her car in the parking lot! More</t>
   </si>
   <si>
+    <t>travelforfunnstuff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r199421980-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -483,6 +531,9 @@
     <t>After reading several reviews on the internet, I was skeptical about staying here.  I don't believe that any of the horror stories I read happened to us.  We didn't expect too much in the way of amenities and we were staying only one night.  Not expecting much, we weren't disappointed.  The room was very overpriced for what we got.  The room was very small and we had to move the bed away from the wall so we could access both sides.  The bed was one of the worst I have ever slept on and I was informed that they are remodeling in May with new mattresses.  There is no coffee, shampoo, fridge or microwave in the room, but there are ample supplies in the shopping complex they share space with.  The room overall seemed clean enough and the bathroom worked; what more do you need?  If you go in expecting very little and you get it, you should be happy.  We were.More</t>
   </si>
   <si>
+    <t>azur_skies</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r193612843-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -498,6 +549,9 @@
     <t>Horribly attacked by bedbugs in my room. Took a look at the mattress.. totally disgusting, brown, stained, looked twenty years old. Don't be fooled by the good location, check the bed when you get there.</t>
   </si>
   <si>
+    <t>Nick N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r185893031-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -516,6 +570,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>ocoAzusa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r144613183-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -534,6 +591,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>paulo555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r135100025-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -585,6 +645,9 @@
     <t>June 2011</t>
   </si>
   <si>
+    <t>macpooh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r76516336-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -603,6 +666,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>bigBisTrIpPiN69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r67592100-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -639,6 +705,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>handyhand</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r43214045-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -657,6 +726,9 @@
     <t>September 2009</t>
   </si>
   <si>
+    <t>jmullins762</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r30102161-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -678,6 +750,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>ZIL921</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r4409202-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -699,6 +774,9 @@
     <t>I was looking for a really cheap, clean and safe(being a female traveler) motel to stay for 1 night to attend a business meeting the following business day, and don't want to spent a lot of money just to stay for 1 night (My company is not reimbursing me for this expense).  I booked my reservation with Brian - the Reservation Clerk and he was so pleasant and courteous. I told him I wanted a 1 queen size bed, non smoking and most importantly a quiet room/area.  I followed up my reservation (by phone) the day of my arrival and Amanda (I beleive this is her name), assisted me and said that the room will be ready for me when I arrived, and she made sure that she'll give me a quiet room/area, per my request.When I got to my room - I was happy that I got a nice, clean and quiet room upstairs.  Also, I wanted to go a steakhouse (Pinnacle Peak), and it was so close to the motel.  I loved this place and will definitely stay here again and recommend it to others.Room is clean, although there is no alarm clock, but there is a wakeup call.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r4045604-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
   </si>
   <si>
@@ -715,6 +793,9 @@
   </si>
   <si>
     <t>September 2005</t>
+  </si>
+  <si>
+    <t>malv1363</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33013-d244451-r3899535-Motel_6_Los_Angeles_San_Dimas-San_Dimas_California.html</t>
@@ -1237,43 +1318,47 @@
       <c r="A2" t="n">
         <v>11176</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1287,50 +1372,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11176</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1344,50 +1433,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11176</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1407,50 +1500,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11176</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1464,50 +1561,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11176</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1521,50 +1622,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11176</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1582,50 +1687,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11176</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1645,50 +1754,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11176</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1702,50 +1815,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11176</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1761,56 +1878,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="X10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11176</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="J11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -1828,56 +1949,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11176</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="O12" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1895,41 +2020,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11176</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="K13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
@@ -1948,50 +2077,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11176</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2009,50 +2142,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11176</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2066,50 +2203,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11176</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2123,50 +2264,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11176</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="J17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="L17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P17" t="n">
         <v>2</v>
@@ -2190,41 +2335,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11176</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>171</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="K18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="L18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -2253,50 +2402,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>11176</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>177</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="O19" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2320,50 +2473,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>11176</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>184</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2387,41 +2544,45 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>11176</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -2450,50 +2611,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11176</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2517,50 +2682,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>11176</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="O23" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2580,50 +2749,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>11176</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2647,50 +2820,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>11176</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>216</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="O25" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -2714,50 +2891,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>11176</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>209</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -2781,50 +2962,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>11176</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>229</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -2848,50 +3033,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>11176</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>236</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J28" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K28" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -2915,50 +3104,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>11176</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>244</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -2980,50 +3173,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>11176</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3045,41 +3242,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>11176</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>259</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -3098,7 +3299,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
